--- a/data/trans_dic/P12_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,13</t>
+          <t>1,19; 4,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,69</t>
+          <t>2,9; 6,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,45</t>
+          <t>0,61; 3,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,46</t>
+          <t>2,08; 9,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,57</t>
+          <t>3,55; 7,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,58</t>
+          <t>1,8; 5,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,18</t>
+          <t>3,06; 7,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 12,25</t>
+          <t>3,82; 11,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,0</t>
+          <t>2,67; 5,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,33</t>
+          <t>2,86; 5,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,75</t>
+          <t>2,2; 4,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,03</t>
+          <t>3,35; 9,16</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,77</t>
+          <t>2,05; 4,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,97</t>
+          <t>3,37; 7,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,36</t>
+          <t>3,69; 7,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 12,23</t>
+          <t>5,55; 12,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,68</t>
+          <t>6,26; 10,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,2</t>
+          <t>4,25; 8,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,24</t>
+          <t>4,41; 8,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 13,74</t>
+          <t>7,44; 13,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 6,89</t>
+          <t>4,27; 6,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,94</t>
+          <t>4,21; 6,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,04</t>
+          <t>4,43; 7,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 12,03</t>
+          <t>7,35; 12,1</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,42</t>
+          <t>3,06; 6,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,43</t>
+          <t>4,52; 8,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,54</t>
+          <t>3,12; 6,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,68</t>
+          <t>5,94; 10,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,89</t>
+          <t>4,89; 8,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 13,99</t>
+          <t>9,06; 13,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,92</t>
+          <t>4,17; 7,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,74</t>
+          <t>7,46; 11,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,98</t>
+          <t>4,5; 6,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 10,69</t>
+          <t>7,3; 10,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,58</t>
+          <t>4,12; 6,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 10,53</t>
+          <t>7,12; 10,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,9</t>
+          <t>2,69; 6,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 11,58</t>
+          <t>6,73; 11,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 13,49</t>
+          <t>8,21; 13,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 12,99</t>
+          <t>7,43; 13,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 11,35</t>
+          <t>6,31; 11,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,48; 19,74</t>
+          <t>13,49; 19,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,75</t>
+          <t>9,0; 14,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 14,2</t>
+          <t>10,08; 14,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,5</t>
+          <t>5,21; 8,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 14,98</t>
+          <t>10,69; 15,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,2; 12,58</t>
+          <t>9,06; 12,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,1; 12,79</t>
+          <t>9,37; 12,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,87</t>
+          <t>4,87; 10,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,04</t>
+          <t>8,5; 15,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 13,63</t>
+          <t>7,86; 13,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,87; 15,01</t>
+          <t>9,72; 14,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 12,59</t>
+          <t>6,79; 12,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,18; 20,85</t>
+          <t>13,1; 20,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,04; 22,35</t>
+          <t>14,78; 21,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,32</t>
+          <t>15,38; 20,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,23</t>
+          <t>6,37; 10,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,57; 16,37</t>
+          <t>11,68; 16,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,18; 16,84</t>
+          <t>12,14; 17,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,25; 16,83</t>
+          <t>13,38; 16,88</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,48; 12,94</t>
+          <t>7,51; 13,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,0; 16,69</t>
+          <t>10,6; 16,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,2</t>
+          <t>8,54; 13,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,54; 19,39</t>
+          <t>14,84; 19,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,82; 14,9</t>
+          <t>10,01; 15,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,31; 25,11</t>
+          <t>19,36; 25,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,88; 24,06</t>
+          <t>18,01; 24,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,66; 23,73</t>
+          <t>14,13; 23,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,64; 13,41</t>
+          <t>9,63; 13,24</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,39; 20,91</t>
+          <t>16,33; 20,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,53; 18,57</t>
+          <t>14,35; 18,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,1; 21,07</t>
+          <t>15,64; 21,25</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,9</t>
+          <t>4,39; 5,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,17; 9,04</t>
+          <t>7,16; 8,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 8,31</t>
+          <t>6,53; 8,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,52; 12,01</t>
+          <t>9,66; 11,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,6; 9,57</t>
+          <t>7,55; 9,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,15; 14,54</t>
+          <t>12,18; 14,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,65; 12,95</t>
+          <t>10,63; 12,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,75; 15,29</t>
+          <t>12,86; 15,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,53</t>
+          <t>6,24; 7,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,97; 11,51</t>
+          <t>9,98; 11,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,85; 10,34</t>
+          <t>8,88; 10,31</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,61; 13,25</t>
+          <t>11,62; 13,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,02</t>
+          <t>1,16; 3,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,52</t>
+          <t>2,89; 6,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,3</t>
+          <t>0,72; 3,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,47</t>
+          <t>3,46; 7,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,94</t>
+          <t>1,87; 5,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,43</t>
+          <t>3,16; 7,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,09</t>
+          <t>2,66; 4,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,51</t>
+          <t>2,78; 5,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,73</t>
+          <t>2,12; 4,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,64</t>
+          <t>2,08; 5,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 7,0</t>
+          <t>3,48; 6,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,31</t>
+          <t>3,71; 7,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 10,75</t>
+          <t>6,09; 10,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,45</t>
+          <t>4,33; 8,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,46</t>
+          <t>4,1; 8,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,85</t>
+          <t>4,41; 6,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,86</t>
+          <t>4,27; 6,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,22</t>
+          <t>4,41; 7,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,52</t>
+          <t>3,08; 6,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,37</t>
+          <t>4,61; 8,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,6</t>
+          <t>2,97; 6,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,85</t>
+          <t>4,79; 8,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 13,91</t>
+          <t>8,97; 13,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,8</t>
+          <t>4,18; 7,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 6,99</t>
+          <t>4,49; 6,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 10,53</t>
+          <t>7,43; 10,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 6,49</t>
+          <t>4,05; 6,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,71</t>
+          <t>2,75; 7,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 11,86</t>
+          <t>7,01; 11,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 13,38</t>
+          <t>8,15; 13,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 11,32</t>
+          <t>6,61; 11,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 19,79</t>
+          <t>13,25; 19,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,0; 14,2</t>
+          <t>8,84; 13,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,22</t>
+          <t>5,15; 8,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,69; 15,06</t>
+          <t>11,02; 15,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,06; 12,74</t>
+          <t>9,17; 12,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,25</t>
+          <t>4,86; 9,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,5; 15,04</t>
+          <t>8,65; 14,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,86; 13,75</t>
+          <t>7,78; 13,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,79; 12,77</t>
+          <t>6,67; 12,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,1; 20,37</t>
+          <t>12,73; 20,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,78; 21,87</t>
+          <t>14,61; 22,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,37; 10,35</t>
+          <t>6,46; 10,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,68; 16,62</t>
+          <t>11,94; 16,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,14; 17,1</t>
+          <t>12,14; 16,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,51; 13,02</t>
+          <t>7,72; 13,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,6; 16,84</t>
+          <t>10,53; 16,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,54; 13,3</t>
+          <t>8,57; 13,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,01; 15,17</t>
+          <t>9,85; 15,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,36; 25,62</t>
+          <t>19,07; 25,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,01; 24,15</t>
+          <t>17,87; 24,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 13,24</t>
+          <t>9,61; 13,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,33; 20,8</t>
+          <t>16,13; 20,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,35; 18,62</t>
+          <t>14,5; 18,72</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,91</t>
+          <t>4,4; 5,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,16; 8,99</t>
+          <t>7,13; 9,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,53; 8,42</t>
+          <t>6,51; 8,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,55; 9,54</t>
+          <t>7,62; 9,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,18; 14,56</t>
+          <t>12,04; 14,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,63; 12,84</t>
+          <t>10,68; 12,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,49</t>
+          <t>6,21; 7,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,98; 11,56</t>
+          <t>10,01; 11,5</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,88; 10,31</t>
+          <t>8,94; 10,32</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P12_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces</t>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,93</t>
+          <t>1,19; 4,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,48</t>
+          <t>2,84; 6,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,5</t>
+          <t>0,65; 3,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,84</t>
+          <t>1,87; 9,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,55</t>
+          <t>3,49; 7,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,49</t>
+          <t>1,64; 5,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,63</t>
+          <t>2,95; 7,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 11,83</t>
+          <t>3,58; 12,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,95</t>
+          <t>2,57; 5,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,45</t>
+          <t>2,7; 5,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,53</t>
+          <t>2,11; 4,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,16</t>
+          <t>3,59; 9,03</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,0</t>
+          <t>2,11; 4,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,8</t>
+          <t>3,44; 6,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,41</t>
+          <t>3,61; 7,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,55; 12,58</t>
+          <t>5,48; 12,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 10,51</t>
+          <t>6,1; 10,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,4</t>
+          <t>4,17; 8,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,41</t>
+          <t>4,21; 8,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 13,91</t>
+          <t>7,6; 13,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,79</t>
+          <t>4,36; 6,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,93</t>
+          <t>4,31; 6,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,17</t>
+          <t>4,35; 7,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 12,1</t>
+          <t>7,4; 12,03</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,62</t>
+          <t>3,11; 6,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 8,4</t>
+          <t>4,6; 8,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,57</t>
+          <t>3,11; 6,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,94; 10,94</t>
+          <t>5,8; 10,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,76</t>
+          <t>4,88; 8,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,97; 13,91</t>
+          <t>8,83; 13,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,93</t>
+          <t>4,23; 7,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,5</t>
+          <t>7,38; 11,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 6,96</t>
+          <t>4,45; 6,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,62</t>
+          <t>7,45; 10,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 6,56</t>
+          <t>4,18; 6,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,52</t>
+          <t>7,34; 10,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,04</t>
+          <t>2,97; 6,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,98</t>
+          <t>6,83; 11,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,55</t>
+          <t>8,13; 13,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 13,05</t>
+          <t>7,33; 12,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,39</t>
+          <t>6,42; 11,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,25; 19,69</t>
+          <t>13,48; 19,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,84; 13,84</t>
+          <t>8,61; 13,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,08; 14,0</t>
+          <t>10,09; 14,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 8,2</t>
+          <t>5,21; 8,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,02; 15,03</t>
+          <t>10,98; 14,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 12,77</t>
+          <t>9,2; 12,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,37; 12,74</t>
+          <t>9,1; 12,79</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,61</t>
+          <t>4,8; 9,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,65; 14,49</t>
+          <t>8,52; 15,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,59</t>
+          <t>7,82; 13,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,72; 14,89</t>
+          <t>9,87; 15,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,6</t>
+          <t>6,58; 12,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,73; 20,16</t>
+          <t>13,18; 20,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,61; 22,39</t>
+          <t>15,04; 22,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,38; 20,21</t>
+          <t>15,23; 20,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,3</t>
+          <t>6,38; 10,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,94; 16,7</t>
+          <t>11,57; 16,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,14; 16,59</t>
+          <t>12,18; 16,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,38; 16,88</t>
+          <t>13,25; 16,83</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,72; 13,32</t>
+          <t>7,48; 12,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,53; 16,77</t>
+          <t>11,0; 16,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,57; 13,38</t>
+          <t>8,46; 13,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,84; 19,28</t>
+          <t>14,54; 19,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,85; 15,1</t>
+          <t>9,82; 14,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,07; 25,13</t>
+          <t>19,31; 25,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,87; 24,22</t>
+          <t>17,88; 24,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,13; 23,95</t>
+          <t>13,66; 23,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,61; 13,29</t>
+          <t>9,64; 13,41</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,13; 20,81</t>
+          <t>16,39; 20,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,5; 18,72</t>
+          <t>14,53; 18,57</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,64; 21,25</t>
+          <t>15,1; 21,07</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,4; 5,91</t>
+          <t>4,37; 5,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,13; 9,08</t>
+          <t>7,17; 9,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,51; 8,38</t>
+          <t>6,47; 8,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,66; 11,84</t>
+          <t>9,52; 12,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,62; 9,39</t>
+          <t>7,6; 9,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,04; 14,62</t>
+          <t>12,15; 14,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,68; 12,94</t>
+          <t>10,65; 12,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,86; 15,29</t>
+          <t>12,75; 15,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,21; 7,43</t>
+          <t>6,24; 7,53</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,01; 11,5</t>
+          <t>9,97; 11,51</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,94; 10,32</t>
+          <t>8,85; 10,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,62; 13,39</t>
+          <t>11,61; 13,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,46</t>
+          <t>1,73; 9,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 12,25</t>
+          <t>3,52; 12,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,03</t>
+          <t>3,36; 8,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,47 +811,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8,86%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>8,6%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,03%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>10,34%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,5%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>5,65%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>9,54%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 12,23</t>
+          <t>5,33; 12,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 13,74</t>
+          <t>5,3; 11,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 12,03</t>
+          <t>6,37; 11,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,48%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,68</t>
+          <t>5,52; 10,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,74</t>
+          <t>7,28; 11,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 10,53</t>
+          <t>7,11; 10,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>9,6%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 12,99</t>
+          <t>3,17; 12,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 14,2</t>
+          <t>9,36; 13,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,1; 12,79</t>
+          <t>5,77; 12,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>14,63%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,87; 15,01</t>
+          <t>9,59; 14,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,32</t>
+          <t>14,9; 19,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,25; 16,83</t>
+          <t>12,89; 16,38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>12,7%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,48; 12,94</t>
+          <t>7,53; 14,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,0; 16,69</t>
+          <t>8,45; 17,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,2</t>
+          <t>4,78; 10,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,54; 19,39</t>
+          <t>10,93; 16,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,82; 14,9</t>
+          <t>10,32; 17,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,31; 25,11</t>
+          <t>14,84; 23,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,88; 24,06</t>
+          <t>11,98; 19,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,66; 23,73</t>
+          <t>4,61; 19,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,64; 13,41</t>
+          <t>10,02; 14,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,39; 20,91</t>
+          <t>13,34; 19,49</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,53; 18,57</t>
+          <t>9,62; 14,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,1; 21,07</t>
+          <t>6,07; 16,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>23,65%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>5,4; 12,93</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10,68; 19,45</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11,63; 20,18</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 23,89</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7,56; 14,62</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20,85; 30,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20,68; 30,97</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23,3; 29,52</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 13,01</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18,04; 24,82</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,15; 24,96</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>21,28; 25,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8,08%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9,82%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13,3%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11,74%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>10,74%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>9,61%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>4,37; 5,9</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>7,17; 9,04</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>6,47; 8,31</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>9,52; 12,01</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7,47; 11,11</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>7,6; 9,57</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>12,15; 14,54</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>10,65; 12,95</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>12,75; 15,29</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10,91; 14,46</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>6,24; 7,53</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>9,97; 11,51</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>8,85; 10,34</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>11,61; 13,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>9,95; 12,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P12_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,13</t>
+          <t>1,18; 4,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,69</t>
+          <t>2,98; 6,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,45</t>
+          <t>0,69; 3,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 9,92</t>
+          <t>1,8; 9,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,57</t>
+          <t>3,54; 7,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,58</t>
+          <t>2,02; 5,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,18</t>
+          <t>3,01; 7,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 12,04</t>
+          <t>3,51; 11,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,0</t>
+          <t>2,64; 5,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,33</t>
+          <t>2,79; 5,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,75</t>
+          <t>2,15; 4,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 8,82</t>
+          <t>3,23; 9,05</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,77</t>
+          <t>2,05; 4,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,97</t>
+          <t>3,52; 7,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,36</t>
+          <t>3,81; 7,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 12,12</t>
+          <t>5,06; 11,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,68</t>
+          <t>6,26; 10,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,2</t>
+          <t>4,07; 8,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,24</t>
+          <t>4,24; 8,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 11,84</t>
+          <t>5,24; 12,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 6,89</t>
+          <t>4,32; 6,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,94</t>
+          <t>4,31; 6,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,04</t>
+          <t>4,34; 7,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 11,03</t>
+          <t>6,15; 11,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,42</t>
+          <t>3,03; 6,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,43</t>
+          <t>4,63; 8,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,54</t>
+          <t>3,12; 6,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 10,14</t>
+          <t>5,74; 10,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,89</t>
+          <t>4,95; 8,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 13,99</t>
+          <t>9,07; 14,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,92</t>
+          <t>4,27; 8,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,52</t>
+          <t>7,32; 11,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,98</t>
+          <t>4,63; 7,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 10,69</t>
+          <t>7,47; 10,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,58</t>
+          <t>4,07; 6,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 10,21</t>
+          <t>7,04; 10,15</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,9</t>
+          <t>2,89; 6,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 11,58</t>
+          <t>6,81; 11,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 13,49</t>
+          <t>8,23; 13,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 12,42</t>
+          <t>3,36; 12,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 11,35</t>
+          <t>6,28; 11,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,48; 19,74</t>
+          <t>13,37; 19,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,75</t>
+          <t>8,85; 13,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,36; 13,64</t>
+          <t>9,46; 13,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,5</t>
+          <t>5,26; 8,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 14,98</t>
+          <t>10,82; 14,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,2; 12,58</t>
+          <t>9,17; 12,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 12,04</t>
+          <t>5,7; 12,04</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,87</t>
+          <t>5,01; 10,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,04</t>
+          <t>8,47; 14,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 13,63</t>
+          <t>8,11; 13,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,59; 14,67</t>
+          <t>9,73; 14,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 12,59</t>
+          <t>6,59; 12,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,18; 20,85</t>
+          <t>13,02; 20,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,04; 22,35</t>
+          <t>14,73; 21,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,9; 19,86</t>
+          <t>14,95; 19,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,23</t>
+          <t>6,47; 10,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,57; 16,37</t>
+          <t>11,78; 16,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,18; 16,84</t>
+          <t>12,02; 16,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,89; 16,38</t>
+          <t>13,0; 16,62</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,53; 14,96</t>
+          <t>7,62; 14,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,45; 17,07</t>
+          <t>9,1; 16,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 10,82</t>
+          <t>5,02; 10,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,93; 16,6</t>
+          <t>10,72; 16,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,32; 17,67</t>
+          <t>10,37; 17,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,84; 23,45</t>
+          <t>14,99; 23,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,98; 19,79</t>
+          <t>12,45; 20,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,61; 19,29</t>
+          <t>4,69; 19,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,02; 14,89</t>
+          <t>10,04; 15,08</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,49</t>
+          <t>13,13; 18,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,62; 14,58</t>
+          <t>9,48; 14,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,07; 16,7</t>
+          <t>6,7; 16,85</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,4; 12,93</t>
+          <t>5,53; 13,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,68; 19,45</t>
+          <t>10,6; 20,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,63; 20,18</t>
+          <t>11,32; 19,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,34; 23,89</t>
+          <t>16,66; 23,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,56; 14,62</t>
+          <t>7,71; 15,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,85; 30,19</t>
+          <t>21,04; 30,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,68; 30,97</t>
+          <t>21,2; 30,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,3; 29,52</t>
+          <t>23,37; 29,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,8; 13,01</t>
+          <t>7,85; 13,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,04; 24,82</t>
+          <t>18,05; 24,69</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,15; 24,96</t>
+          <t>18,39; 25,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>21,28; 25,99</t>
+          <t>21,32; 26,03</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,9</t>
+          <t>4,38; 5,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,17; 9,04</t>
+          <t>7,13; 9,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,47; 8,31</t>
+          <t>6,49; 8,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,47; 11,11</t>
+          <t>7,57; 11,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,6; 9,57</t>
+          <t>7,54; 9,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,15; 14,54</t>
+          <t>12,09; 14,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,65; 12,95</t>
+          <t>10,68; 12,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,91; 14,46</t>
+          <t>10,49; 14,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,53</t>
+          <t>6,22; 7,46</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,97; 11,51</t>
+          <t>10,0; 11,51</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,85; 10,34</t>
+          <t>8,91; 10,34</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,95; 12,48</t>
+          <t>10,13; 12,51</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11277</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20193</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6723</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17498</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>24401</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14283</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19546</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21856</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>35679</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34476</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26270</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>39354</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5830; 20654</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13545; 30509</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2880; 13851</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7210; 36784</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16567; 36106</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8615; 24320</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11891; 29079</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11003; 36108</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25359; 48166</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24560; 47595</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17520; 38020</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23025; 64563</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23554</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33594</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31370</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>35115</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>51308</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>36729</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33822</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>45297</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>74862</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>70324</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>80413</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15111; 35312</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24123; 48272</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>22500; 44876</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21432; 50537</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>39181; 67534</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>24793; 49832</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23907; 47541</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26779; 62589</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>58750; 93580</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>55873; 89761</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>50076; 83203</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>57477; 103930</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29642</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>42783</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30989</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>41730</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>45237</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>80325</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38402</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>49713</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>74880</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>123108</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>69391</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>91443</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19376; 41261</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>31602; 58203</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20846; 43817</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30785; 56717</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34149; 59585</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>64415; 100698</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28158; 53343</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39708; 60293</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>61523; 94882</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>103913; 148136</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>53987; 87295</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>75911; 109547</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23603</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>55183</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>68246</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>71861</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>44612</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>101392</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>72146</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>81769</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>68215</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>156575</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>140392</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>153630</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>15018; 35538</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>41605; 72332</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>52964; 85659</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>29796; 112840</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>32402; 59517</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>82238; 121476</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>57448; 89064</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>67329; 96341</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>54414; 87700</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>132724; 182529</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>118604; 164390</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>91210; 192667</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>27712</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>48821</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>49344</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>66719</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>37425</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>74162</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>89639</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>95005</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>65137</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>122983</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>138983</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19373; 39040</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>36389; 62261</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>38600; 65774</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>54349; 80403</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26641; 51085</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>58297; 91228</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>72840; 108251</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>81816; 109154</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>51124; 81370</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>103295; 145820</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>116621; 163263</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>143703; 183768</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>31718</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>38874</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>24616</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>50053</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>47039</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>66830</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>59493</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>73981</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>78757</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>105705</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>84109</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>124033</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>22299; 43149</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>28179; 51904</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>16722; 36070</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>39484; 60447</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>35567; 59682</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>53069; 84079</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>47026; 75762</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>28520; 116264</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>63806; 95861</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>87181; 125307</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>67421; 102883</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>65382; 164567</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>18539</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>37060</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>38797</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>56419</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>36503</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>98554</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>102297</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>110647</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>55042</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>135614</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>141093</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>167066</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11607; 28695</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>26393; 51371</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>29088; 50768</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>47015; 66922</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>25729; 50453</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>81859; 117382</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>84575; 122788</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>99124; 123734</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>42680; 70689</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>115163; 157485</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>120589; 166184</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>150611; 183901</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>166046</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>276508</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>250085</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>339395</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>286526</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>472276</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>415345</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>478268</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>452571</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>748783</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>665430</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>817663</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>143463; 192159</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>244051; 311769</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>219954; 282827</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>261632; 391794</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>254823; 319623</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>429410; 515675</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>377743; 455323</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>383620; 526372</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>413707; 496793</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>697227; 802929</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>617461; 715912</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>721084; 889857</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>